--- a/data/baiana/Indicadores de mortalidade por DCNT - TME diabete melito por Sexo segundo Ano 2011 a 2021.xlsx
+++ b/data/baiana/Indicadores de mortalidade por DCNT - TME diabete melito por Sexo segundo Ano 2011 a 2021.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Downloads\Dados\geral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Desktop\git\cienciaDeDados\data\baiana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CAEA35D1-9F59-41D1-B3A1-C81EB2443C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F00C24-2C41-45C6-9C19-EDBB3354483A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores de mortalidade por " sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,6 +586,1234 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feminino  </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63F6-42B8-B376-71B3282B7105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Indicadores de mortalidade por '!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Masculino </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Indicadores de mortalidade por '!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63F6-42B8-B376-71B3282B7105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="796743472"/>
+        <c:axId val="796740144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="796743472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796740144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="796740144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796743472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509CBECF-96BE-4959-AB7E-118EA6EA2C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,11 +2112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,4 +2297,17 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481385A4-A69C-4F78-ACAE-45BA24765759}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>